--- a/C++ 200 Final Rubric.xlsx
+++ b/C++ 200 Final Rubric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jriffer/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CA4569B-DC70-EA4E-9F95-9440E80975F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF8DE4B-FE8A-354A-97CE-397F2B0CFEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{202BCB29-3DC2-BE47-A94C-3F0FFF3E3940}"/>
   </bookViews>
@@ -65,15 +65,9 @@
     <t>Program doesn't run or is severely incomplete</t>
   </si>
   <si>
-    <t>2. Programming Fundamentals - Implementation (30 points)</t>
-  </si>
-  <si>
     <t>Variables (4 points)</t>
   </si>
   <si>
-    <t>4 pts: Uses 4+ different variable types meaningfully</t>
-  </si>
-  <si>
     <t>3 pts: Uses 3 different variable types meaningfully</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>Conditionals (4 points)</t>
   </si>
   <si>
-    <t>4 pts: Multiple conditional statements used meaningfully for program logic</t>
-  </si>
-  <si>
     <t>3 pts: Conditionals used appropriately but limited in scope</t>
   </si>
   <si>
@@ -101,9 +92,6 @@
     <t>Loops (5 points)</t>
   </si>
   <si>
-    <t>5 pts: Loop(s) used effectively, allows multiple tests/iterations, appropriate loop type chosen</t>
-  </si>
-  <si>
     <t>4 pts: Loop used correctly but could be optimized</t>
   </si>
   <si>
@@ -116,9 +104,6 @@
     <t>Arrays/Data Structures (4 points)</t>
   </si>
   <si>
-    <t>4 pts: Array/list used effectively to store and manipulate multiple values</t>
-  </si>
-  <si>
     <t>3 pts: Array/list used correctly but limited functionality</t>
   </si>
   <si>
@@ -131,9 +116,6 @@
     <t>Functions (5 points)</t>
   </si>
   <si>
-    <t>5 pts: 3+ custom functions that are well-designed and serve clear purposes</t>
-  </si>
-  <si>
     <t>4 pts: 2-3 custom functions that work correctly</t>
   </si>
   <si>
@@ -293,7 +275,25 @@
     <t>Additional Feedback:</t>
   </si>
   <si>
-    <t>Programming Fundamentals Final Project Rubric (100 Points)</t>
+    <t>4 pts: Multiple conditional statements used meaningfully for program logic, including nested statements</t>
+  </si>
+  <si>
+    <t>4 pts: Uses 4+ different variable types meaningfully, including booleans</t>
+  </si>
+  <si>
+    <t>5 pts: Loop(s) used effectively, allows multiple tests/iterations, appropriate loop type chosen, with proper breaks</t>
+  </si>
+  <si>
+    <t>5 pts: 3+ custom functions that are well-designed and serve clear purposes, with proper parameters and return values</t>
+  </si>
+  <si>
+    <t>4 pts: Array/list used effectively to store and manipulate multiple values, including sort</t>
+  </si>
+  <si>
+    <t>C++ 200 Final Project Rubric (100 Points)</t>
+  </si>
+  <si>
+    <t>2. C++ Core Concepts - Implementation (30 points)</t>
   </si>
 </sst>
 </file>
@@ -714,14 +714,14 @@
   <dimension ref="A1:B132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" ht="32" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -779,272 +779,272 @@
     </row>
     <row r="13" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1060,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1068,7 +1068,7 @@
         <v>45878</v>
       </c>
       <c r="B99" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1076,7 +1076,7 @@
         <v>45815</v>
       </c>
       <c r="B100" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1084,20 +1084,20 @@
         <v>45752</v>
       </c>
       <c r="B101" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B102" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1113,7 +1113,7 @@
         <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1121,7 +1121,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1129,65 +1129,65 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B111" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
